--- a/参照组_原周报格式.xlsx
+++ b/参照组_原周报格式.xlsx
@@ -614,7 +614,7 @@
     <t>heEr</t>
   </si>
   <si>
-    <t xml:space="preserve">1. GCS-, uemgr sometimes crash.
+    <t xml:space="preserve">1. GCS-,  sometimes crash.
 2. GCS-, ,  KPI Paging, woring on reproduce Paging procedure.
 3. Write  KPI Doc.  (http:///zh/amf/KPI%E6%B5%81%E7%A8%8B) </t>
   </si>
@@ -638,15 +638,15 @@
   <si>
     <t>Fix bug
   1. learn  doc
-  2. read spec about SMF and DN-AAA(sba)</t>
+  2. read spec about  and DN-AAA(sba)</t>
   </si>
   <si>
     <t>1. new KPI requirements.
 2.Support .</t>
   </si>
   <si>
-    <t>1.E911 procedure customized for IVC intrado 
-2.support YTL
+    <t>1.E911 procedure customized for   
+2.support 
 3.Debug  OOM killed issue</t>
   </si>
   <si>
@@ -654,14 +654,14 @@
   </si>
   <si>
     <t xml:space="preserve">1. GCS- GCS- GCS- &lt;sqa&gt;:&lt;&gt;:&lt;platform&gt;:&lt;KPI&gt;: Support  KPI-Number of initial registration failures
-2. Test the environment where K8S tool uses </t>
+2. Test the environment where  tool uses </t>
   </si>
   <si>
     <t>Continue on learning  source code.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Learned amf code (mainly uemgr) following the log of ue registration.
-2. Run and capture procedure of  pdu session establishment request in k8s. </t>
+    <t xml:space="preserve">1. Learned  code (mainly uemgr) following the log of ue registration.
+2. Run and capture procedure of  pdu session establishment request in . </t>
   </si>
   <si>
     <t>1. read uemgr source code.</t>
@@ -4657,8 +4657,8 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
